--- a/src/assets/images/detailImg/linen/hotel/gown/GS-G001/GS-G001说明.xlsx
+++ b/src/assets/images/detailImg/linen/hotel/gown/GS-G001/GS-G001说明.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>GS-G001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>素材：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,19 +145,23 @@
     <t>分類</t>
   </si>
   <si>
-    <t>参考下面图例</t>
+    <t>GS-G002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修饰图片，将两边漏出的模特胳膊去掉，去掉背景</t>
+    <t>去掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本张图片没有细节图</t>
+    <t>1.修饰图片，去掉小胳膊，小夹子，背景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去掉</t>
+    <t>2.本章图片有细节图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图例如下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,19 +317,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Administrator.User-2019TJBGIB\AppData\Roaming\Tencent\Users\312837130\QQ\WinTemp\RichOle\_QY4LV453MQEXNZ(]K64BVE.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\Administrator.User-2019TJBGIB\AppData\Roaming\Tencent\Users\312837130\QQ\WinTemp\RichOle\]_@AK6(_X1GY9JFMG{1PL2V.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -343,48 +343,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5038725" y="962025"/>
-          <a:ext cx="3905250" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4" descr="C:\Users\Administrator.User-2019TJBGIB\AppData\Roaming\Tencent\Users\312837130\QQ\WinTemp\RichOle\A)~VDEZO(4N($2P`GZGA8_V.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1143000" y="6762750"/>
-          <a:ext cx="7496175" cy="5619750"/>
+          <a:off x="4381500" y="295275"/>
+          <a:ext cx="6181725" cy="5972175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -397,25 +357,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3609976" y="3629025"/>
+          <a:ext cx="885825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3962400" y="2514600"/>
-          <a:ext cx="809625" cy="485775"/>
+        <a:xfrm>
+          <a:off x="10467975" y="3371850"/>
+          <a:ext cx="733425" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -444,25 +451,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="8396288" y="2738437"/>
-          <a:ext cx="571500" cy="542925"/>
+        <a:xfrm>
+          <a:off x="8353425" y="3667125"/>
+          <a:ext cx="3895725" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -486,6 +493,46 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="C:\Users\Administrator.User-2019TJBGIB\AppData\Roaming\Tencent\Users\312837130\QQ\WinTemp\RichOle\MK)WN[XK{K39ZRYKS$N(QOX.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2790825" y="7096125"/>
+          <a:ext cx="5029200" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -749,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:L37"/>
+  <dimension ref="B4:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -763,64 +810,67 @@
   <sheetData>
     <row r="4" spans="2:6" ht="17.25">
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="17.25">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="15.75">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75">
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12">
-      <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12">
-      <c r="L19" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12">
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:17">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="22" spans="4:17">
+      <c r="O22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17">
+      <c r="Q29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -835,8 +885,19 @@
       <c r="J34" s="5"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="6" t="s">
-        <v>7</v>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
